--- a/API/wwwroot/Download/OrderDelivery/OrderDelivery.xlsx
+++ b/API/wwwroot/Download/OrderDelivery/OrderDelivery.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Khách hàng</t>
   </si>
@@ -44,13 +44,34 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Tỉnh thành</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Shop trả phí</t>
+  </si>
+  <si>
+    <t>Cân nặng (kg)</t>
+  </si>
+  <si>
+    <t>Dài (cm)</t>
+  </si>
+  <si>
+    <t>Rộng (cm)</t>
+  </si>
+  <si>
+    <t>Cao (cm)</t>
   </si>
 </sst>
 </file>
@@ -114,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,45 +422,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="20.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="16" width="20.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/API/wwwroot/Download/OrderDelivery/OrderDelivery.xlsx
+++ b/API/wwwroot/Download/OrderDelivery/OrderDelivery.xlsx
@@ -141,7 +141,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
